--- a/Analyzed/try8/data_2013.xlsx
+++ b/Analyzed/try8/data_2013.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>51.67</v>
       </c>
       <c r="J2">
-        <v>466.2</v>
+        <v>569.02985</v>
       </c>
       <c r="K2">
         <v>2407.897</v>
       </c>
       <c r="L2">
-        <v>470.19</v>
+        <v>621.3955999999999</v>
       </c>
       <c r="M2">
         <v>62.81791446644243</v>
@@ -558,49 +583,64 @@
         <v>-125.62</v>
       </c>
       <c r="P2">
-        <v>448.2130215617543</v>
+        <v>586.7153847960682</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
         <v>6</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>48.75</v>
       </c>
       <c r="J3">
-        <v>495</v>
+        <v>544.68649</v>
       </c>
       <c r="K3">
         <v>2617.945</v>
       </c>
       <c r="L3">
-        <v>548.73</v>
+        <v>675.4818</v>
       </c>
       <c r="M3">
         <v>62.92405838840959</v>
@@ -652,49 +692,64 @@
         <v>-186.78</v>
       </c>
       <c r="P3">
-        <v>378.5972330718799</v>
+        <v>495.5849559722262</v>
       </c>
       <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
       <c r="U3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
         <v>5</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3">
-        <v>3</v>
-      </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
       <c r="AA3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>47.28</v>
       </c>
       <c r="J4">
-        <v>432.8</v>
+        <v>487.02976</v>
       </c>
       <c r="K4">
         <v>772.88</v>
       </c>
       <c r="L4">
-        <v>491.4</v>
+        <v>626.1283</v>
       </c>
       <c r="M4">
         <v>60.24734961757748</v>
@@ -746,48 +801,63 @@
         <v>-77.23999999999999</v>
       </c>
       <c r="P4">
-        <v>458.6980843960215</v>
+        <v>600.8618610705164</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
         <v>7</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>6</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>46.67</v>
       </c>
       <c r="J5">
-        <v>472.2</v>
+        <v>636.2331700000001</v>
       </c>
       <c r="K5">
         <v>1661.549</v>
       </c>
       <c r="L5">
-        <v>482.58</v>
+        <v>692.26605</v>
       </c>
       <c r="M5">
         <v>59.11317441018036</v>
@@ -840,32 +910,32 @@
         <v>-85.63</v>
       </c>
       <c r="P5">
-        <v>439.9265803448898</v>
+        <v>575.1730257280747</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
         <v>6</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
       <c r="Y5">
         <v>1</v>
       </c>
@@ -873,15 +943,30 @@
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>1</v>
       </c>
     </row>
@@ -916,13 +1001,13 @@
         <v>41.04</v>
       </c>
       <c r="J6">
-        <v>424.8</v>
+        <v>482.74986</v>
       </c>
       <c r="K6">
         <v>888.383</v>
       </c>
       <c r="L6">
-        <v>456.12</v>
+        <v>570.073</v>
       </c>
       <c r="M6">
         <v>70.40450043334661</v>
@@ -934,37 +1019,37 @@
         <v>-98.45</v>
       </c>
       <c r="P6">
-        <v>510.3376802285125</v>
+        <v>671.9034897762399</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
       <c r="S6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>4</v>
@@ -973,9 +1058,24 @@
         <v>0</v>
       </c>
       <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6">
         <v>4</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
         <v>3</v>
       </c>
     </row>
@@ -1010,13 +1110,13 @@
         <v>43.56</v>
       </c>
       <c r="J7">
-        <v>466.4</v>
+        <v>542.3839800000001</v>
       </c>
       <c r="K7">
         <v>1446.274</v>
       </c>
       <c r="L7">
-        <v>484.26</v>
+        <v>546.2835</v>
       </c>
       <c r="M7">
         <v>74.31439141913705</v>
@@ -1028,37 +1128,37 @@
         <v>-162.62</v>
       </c>
       <c r="P7">
-        <v>445.2298515551728</v>
+        <v>583.9730443837468</v>
       </c>
       <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
       <c r="S7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>4</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -1067,10 +1167,25 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>33.45</v>
       </c>
       <c r="J8">
-        <v>414.2</v>
+        <v>456.76693</v>
       </c>
       <c r="K8">
         <v>861.3829999999999</v>
       </c>
       <c r="L8">
-        <v>440.58</v>
+        <v>489.68675</v>
       </c>
       <c r="M8">
         <v>66.4588669904745</v>
@@ -1122,48 +1237,63 @@
         <v>-131.5</v>
       </c>
       <c r="P8">
-        <v>433.9729125779843</v>
+        <v>570.3751087448876</v>
       </c>
       <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>0</v>
       </c>
     </row>
@@ -1198,13 +1328,13 @@
         <v>27.71</v>
       </c>
       <c r="J9">
-        <v>435.2</v>
+        <v>467.5251</v>
       </c>
       <c r="K9">
         <v>1564.649</v>
       </c>
       <c r="L9">
-        <v>461.16</v>
+        <v>525.1809499999999</v>
       </c>
       <c r="M9">
         <v>69.86568694135343</v>
@@ -1216,34 +1346,34 @@
         <v>-141.11</v>
       </c>
       <c r="P9">
-        <v>261.2338085538194</v>
+        <v>337.998987608884</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
       <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>4</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1252,13 +1382,28 @@
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>18.36</v>
       </c>
       <c r="J10">
-        <v>387.2</v>
+        <v>330.80452</v>
       </c>
       <c r="K10">
         <v>1656.189</v>
       </c>
       <c r="L10">
-        <v>385.14</v>
+        <v>337.9432</v>
       </c>
       <c r="M10">
         <v>81.41516103104638</v>
@@ -1310,37 +1455,37 @@
         <v>-135.95</v>
       </c>
       <c r="P10">
-        <v>335.5959105542793</v>
+        <v>438.3570137491151</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>5</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>8</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10">
         <v>1</v>
@@ -1352,7 +1497,22 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
